--- a/训练中心创客交叉融合空间建设/admin/创客交叉融合项目工作计划.xlsx
+++ b/训练中心创客交叉融合空间建设/admin/创客交叉融合项目工作计划.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>5月</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -107,6 +107,14 @@
     <t>产品图文展示模块</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>三创空间路演</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在线平台内容维护员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -174,17 +182,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -489,39 +497,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IN43"/>
+  <dimension ref="A1:IN46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomRight" activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="7.5" style="3" customWidth="1"/>
-    <col min="2" max="2" width="27.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="3"/>
-    <col min="4" max="12" width="2.5" style="6" customWidth="1"/>
-    <col min="13" max="13" width="3.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="29" width="3.5" style="6" customWidth="1"/>
-    <col min="30" max="34" width="3.5" style="3" customWidth="1"/>
-    <col min="35" max="43" width="2.5" style="3" customWidth="1"/>
-    <col min="44" max="64" width="3.5" style="3" customWidth="1"/>
-    <col min="65" max="73" width="2.5" style="3" customWidth="1"/>
-    <col min="74" max="95" width="3.5" style="3" customWidth="1"/>
-    <col min="96" max="104" width="2.5" style="3" customWidth="1"/>
-    <col min="105" max="126" width="3.5" style="3" customWidth="1"/>
-    <col min="127" max="135" width="2.5" style="3" customWidth="1"/>
-    <col min="136" max="156" width="3.5" style="3" customWidth="1"/>
-    <col min="157" max="165" width="2.5" style="3" customWidth="1"/>
-    <col min="166" max="187" width="3.5" style="3" customWidth="1"/>
-    <col min="188" max="196" width="2.5" style="3" customWidth="1"/>
-    <col min="197" max="217" width="3.5" style="3" customWidth="1"/>
-    <col min="218" max="226" width="2.5" style="3" customWidth="1"/>
-    <col min="227" max="248" width="3.5" style="3" customWidth="1"/>
-    <col min="249" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="7.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="27.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="2"/>
+    <col min="4" max="12" width="2.5" style="4" customWidth="1"/>
+    <col min="13" max="13" width="3.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="29" width="3.5" style="4" customWidth="1"/>
+    <col min="30" max="34" width="3.5" style="2" customWidth="1"/>
+    <col min="35" max="43" width="2.5" style="2" customWidth="1"/>
+    <col min="44" max="64" width="3.5" style="2" customWidth="1"/>
+    <col min="65" max="73" width="2.5" style="2" customWidth="1"/>
+    <col min="74" max="95" width="3.5" style="2" customWidth="1"/>
+    <col min="96" max="104" width="2.5" style="2" customWidth="1"/>
+    <col min="105" max="126" width="3.5" style="2" customWidth="1"/>
+    <col min="127" max="135" width="2.5" style="2" customWidth="1"/>
+    <col min="136" max="156" width="3.5" style="2" customWidth="1"/>
+    <col min="157" max="165" width="2.5" style="2" customWidth="1"/>
+    <col min="166" max="187" width="3.5" style="2" customWidth="1"/>
+    <col min="188" max="196" width="2.5" style="2" customWidth="1"/>
+    <col min="197" max="217" width="3.5" style="2" customWidth="1"/>
+    <col min="218" max="226" width="2.5" style="2" customWidth="1"/>
+    <col min="227" max="248" width="3.5" style="2" customWidth="1"/>
+    <col min="249" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:248" x14ac:dyDescent="0.15">
@@ -530,267 +538,267 @@
       <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="2"/>
-      <c r="AF1" s="2"/>
-      <c r="AG1" s="2"/>
-      <c r="AH1" s="2"/>
-      <c r="AI1" s="2" t="s">
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
+      <c r="X1" s="6"/>
+      <c r="Y1" s="6"/>
+      <c r="Z1" s="6"/>
+      <c r="AA1" s="6"/>
+      <c r="AB1" s="6"/>
+      <c r="AC1" s="6"/>
+      <c r="AD1" s="6"/>
+      <c r="AE1" s="6"/>
+      <c r="AF1" s="6"/>
+      <c r="AG1" s="6"/>
+      <c r="AH1" s="6"/>
+      <c r="AI1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="AJ1" s="2"/>
-      <c r="AK1" s="2"/>
-      <c r="AL1" s="2"/>
-      <c r="AM1" s="2"/>
-      <c r="AN1" s="2"/>
-      <c r="AO1" s="2"/>
-      <c r="AP1" s="2"/>
-      <c r="AQ1" s="2"/>
-      <c r="AR1" s="2"/>
-      <c r="AS1" s="2"/>
-      <c r="AT1" s="2"/>
-      <c r="AU1" s="2"/>
-      <c r="AV1" s="2"/>
-      <c r="AW1" s="2"/>
-      <c r="AX1" s="2"/>
-      <c r="AY1" s="2"/>
-      <c r="AZ1" s="2"/>
-      <c r="BA1" s="2"/>
-      <c r="BB1" s="2"/>
-      <c r="BC1" s="2"/>
-      <c r="BD1" s="2"/>
-      <c r="BE1" s="2"/>
-      <c r="BF1" s="2"/>
-      <c r="BG1" s="2"/>
-      <c r="BH1" s="2"/>
-      <c r="BI1" s="2"/>
-      <c r="BJ1" s="2"/>
-      <c r="BK1" s="2"/>
-      <c r="BL1" s="2"/>
-      <c r="BM1" s="2" t="s">
+      <c r="AJ1" s="6"/>
+      <c r="AK1" s="6"/>
+      <c r="AL1" s="6"/>
+      <c r="AM1" s="6"/>
+      <c r="AN1" s="6"/>
+      <c r="AO1" s="6"/>
+      <c r="AP1" s="6"/>
+      <c r="AQ1" s="6"/>
+      <c r="AR1" s="6"/>
+      <c r="AS1" s="6"/>
+      <c r="AT1" s="6"/>
+      <c r="AU1" s="6"/>
+      <c r="AV1" s="6"/>
+      <c r="AW1" s="6"/>
+      <c r="AX1" s="6"/>
+      <c r="AY1" s="6"/>
+      <c r="AZ1" s="6"/>
+      <c r="BA1" s="6"/>
+      <c r="BB1" s="6"/>
+      <c r="BC1" s="6"/>
+      <c r="BD1" s="6"/>
+      <c r="BE1" s="6"/>
+      <c r="BF1" s="6"/>
+      <c r="BG1" s="6"/>
+      <c r="BH1" s="6"/>
+      <c r="BI1" s="6"/>
+      <c r="BJ1" s="6"/>
+      <c r="BK1" s="6"/>
+      <c r="BL1" s="6"/>
+      <c r="BM1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="BN1" s="2"/>
-      <c r="BO1" s="2"/>
-      <c r="BP1" s="2"/>
-      <c r="BQ1" s="2"/>
-      <c r="BR1" s="2"/>
-      <c r="BS1" s="2"/>
-      <c r="BT1" s="2"/>
-      <c r="BU1" s="2"/>
-      <c r="BV1" s="2"/>
-      <c r="BW1" s="2"/>
-      <c r="BX1" s="2"/>
-      <c r="BY1" s="2"/>
-      <c r="BZ1" s="2"/>
-      <c r="CA1" s="2"/>
-      <c r="CB1" s="2"/>
-      <c r="CC1" s="2"/>
-      <c r="CD1" s="2"/>
-      <c r="CE1" s="2"/>
-      <c r="CF1" s="2"/>
-      <c r="CG1" s="2"/>
-      <c r="CH1" s="2"/>
-      <c r="CI1" s="2"/>
-      <c r="CJ1" s="2"/>
-      <c r="CK1" s="2"/>
-      <c r="CL1" s="2"/>
-      <c r="CM1" s="2"/>
-      <c r="CN1" s="2"/>
-      <c r="CO1" s="2"/>
-      <c r="CP1" s="2"/>
-      <c r="CQ1" s="2"/>
-      <c r="CR1" s="2" t="s">
+      <c r="BN1" s="6"/>
+      <c r="BO1" s="6"/>
+      <c r="BP1" s="6"/>
+      <c r="BQ1" s="6"/>
+      <c r="BR1" s="6"/>
+      <c r="BS1" s="6"/>
+      <c r="BT1" s="6"/>
+      <c r="BU1" s="6"/>
+      <c r="BV1" s="6"/>
+      <c r="BW1" s="6"/>
+      <c r="BX1" s="6"/>
+      <c r="BY1" s="6"/>
+      <c r="BZ1" s="6"/>
+      <c r="CA1" s="6"/>
+      <c r="CB1" s="6"/>
+      <c r="CC1" s="6"/>
+      <c r="CD1" s="6"/>
+      <c r="CE1" s="6"/>
+      <c r="CF1" s="6"/>
+      <c r="CG1" s="6"/>
+      <c r="CH1" s="6"/>
+      <c r="CI1" s="6"/>
+      <c r="CJ1" s="6"/>
+      <c r="CK1" s="6"/>
+      <c r="CL1" s="6"/>
+      <c r="CM1" s="6"/>
+      <c r="CN1" s="6"/>
+      <c r="CO1" s="6"/>
+      <c r="CP1" s="6"/>
+      <c r="CQ1" s="6"/>
+      <c r="CR1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="CS1" s="2"/>
-      <c r="CT1" s="2"/>
-      <c r="CU1" s="2"/>
-      <c r="CV1" s="2"/>
-      <c r="CW1" s="2"/>
-      <c r="CX1" s="2"/>
-      <c r="CY1" s="2"/>
-      <c r="CZ1" s="2"/>
-      <c r="DA1" s="2"/>
-      <c r="DB1" s="2"/>
-      <c r="DC1" s="2"/>
-      <c r="DD1" s="2"/>
-      <c r="DE1" s="2"/>
-      <c r="DF1" s="2"/>
-      <c r="DG1" s="2"/>
-      <c r="DH1" s="2"/>
-      <c r="DI1" s="2"/>
-      <c r="DJ1" s="2"/>
-      <c r="DK1" s="2"/>
-      <c r="DL1" s="2"/>
-      <c r="DM1" s="2"/>
-      <c r="DN1" s="2"/>
-      <c r="DO1" s="2"/>
-      <c r="DP1" s="2"/>
-      <c r="DQ1" s="2"/>
-      <c r="DR1" s="2"/>
-      <c r="DS1" s="2"/>
-      <c r="DT1" s="2"/>
-      <c r="DU1" s="2"/>
-      <c r="DV1" s="2"/>
-      <c r="DW1" s="2" t="s">
+      <c r="CS1" s="6"/>
+      <c r="CT1" s="6"/>
+      <c r="CU1" s="6"/>
+      <c r="CV1" s="6"/>
+      <c r="CW1" s="6"/>
+      <c r="CX1" s="6"/>
+      <c r="CY1" s="6"/>
+      <c r="CZ1" s="6"/>
+      <c r="DA1" s="6"/>
+      <c r="DB1" s="6"/>
+      <c r="DC1" s="6"/>
+      <c r="DD1" s="6"/>
+      <c r="DE1" s="6"/>
+      <c r="DF1" s="6"/>
+      <c r="DG1" s="6"/>
+      <c r="DH1" s="6"/>
+      <c r="DI1" s="6"/>
+      <c r="DJ1" s="6"/>
+      <c r="DK1" s="6"/>
+      <c r="DL1" s="6"/>
+      <c r="DM1" s="6"/>
+      <c r="DN1" s="6"/>
+      <c r="DO1" s="6"/>
+      <c r="DP1" s="6"/>
+      <c r="DQ1" s="6"/>
+      <c r="DR1" s="6"/>
+      <c r="DS1" s="6"/>
+      <c r="DT1" s="6"/>
+      <c r="DU1" s="6"/>
+      <c r="DV1" s="6"/>
+      <c r="DW1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="DX1" s="2"/>
-      <c r="DY1" s="2"/>
-      <c r="DZ1" s="2"/>
-      <c r="EA1" s="2"/>
-      <c r="EB1" s="2"/>
-      <c r="EC1" s="2"/>
-      <c r="ED1" s="2"/>
-      <c r="EE1" s="2"/>
-      <c r="EF1" s="2"/>
-      <c r="EG1" s="2"/>
-      <c r="EH1" s="2"/>
-      <c r="EI1" s="2"/>
-      <c r="EJ1" s="2"/>
-      <c r="EK1" s="2"/>
-      <c r="EL1" s="2"/>
-      <c r="EM1" s="2"/>
-      <c r="EN1" s="2"/>
-      <c r="EO1" s="2"/>
-      <c r="EP1" s="2"/>
-      <c r="EQ1" s="2"/>
-      <c r="ER1" s="2"/>
-      <c r="ES1" s="2"/>
-      <c r="ET1" s="2"/>
-      <c r="EU1" s="2"/>
-      <c r="EV1" s="2"/>
-      <c r="EW1" s="2"/>
-      <c r="EX1" s="2"/>
-      <c r="EY1" s="2"/>
-      <c r="EZ1" s="2"/>
-      <c r="FA1" s="2" t="s">
+      <c r="DX1" s="6"/>
+      <c r="DY1" s="6"/>
+      <c r="DZ1" s="6"/>
+      <c r="EA1" s="6"/>
+      <c r="EB1" s="6"/>
+      <c r="EC1" s="6"/>
+      <c r="ED1" s="6"/>
+      <c r="EE1" s="6"/>
+      <c r="EF1" s="6"/>
+      <c r="EG1" s="6"/>
+      <c r="EH1" s="6"/>
+      <c r="EI1" s="6"/>
+      <c r="EJ1" s="6"/>
+      <c r="EK1" s="6"/>
+      <c r="EL1" s="6"/>
+      <c r="EM1" s="6"/>
+      <c r="EN1" s="6"/>
+      <c r="EO1" s="6"/>
+      <c r="EP1" s="6"/>
+      <c r="EQ1" s="6"/>
+      <c r="ER1" s="6"/>
+      <c r="ES1" s="6"/>
+      <c r="ET1" s="6"/>
+      <c r="EU1" s="6"/>
+      <c r="EV1" s="6"/>
+      <c r="EW1" s="6"/>
+      <c r="EX1" s="6"/>
+      <c r="EY1" s="6"/>
+      <c r="EZ1" s="6"/>
+      <c r="FA1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="FB1" s="2"/>
-      <c r="FC1" s="2"/>
-      <c r="FD1" s="2"/>
-      <c r="FE1" s="2"/>
-      <c r="FF1" s="2"/>
-      <c r="FG1" s="2"/>
-      <c r="FH1" s="2"/>
-      <c r="FI1" s="2"/>
-      <c r="FJ1" s="2"/>
-      <c r="FK1" s="2"/>
-      <c r="FL1" s="2"/>
-      <c r="FM1" s="2"/>
-      <c r="FN1" s="2"/>
-      <c r="FO1" s="2"/>
-      <c r="FP1" s="2"/>
-      <c r="FQ1" s="2"/>
-      <c r="FR1" s="2"/>
-      <c r="FS1" s="2"/>
-      <c r="FT1" s="2"/>
-      <c r="FU1" s="2"/>
-      <c r="FV1" s="2"/>
-      <c r="FW1" s="2"/>
-      <c r="FX1" s="2"/>
-      <c r="FY1" s="2"/>
-      <c r="FZ1" s="2"/>
-      <c r="GA1" s="2"/>
-      <c r="GB1" s="2"/>
-      <c r="GC1" s="2"/>
-      <c r="GD1" s="2"/>
-      <c r="GE1" s="2"/>
-      <c r="GF1" s="2" t="s">
+      <c r="FB1" s="6"/>
+      <c r="FC1" s="6"/>
+      <c r="FD1" s="6"/>
+      <c r="FE1" s="6"/>
+      <c r="FF1" s="6"/>
+      <c r="FG1" s="6"/>
+      <c r="FH1" s="6"/>
+      <c r="FI1" s="6"/>
+      <c r="FJ1" s="6"/>
+      <c r="FK1" s="6"/>
+      <c r="FL1" s="6"/>
+      <c r="FM1" s="6"/>
+      <c r="FN1" s="6"/>
+      <c r="FO1" s="6"/>
+      <c r="FP1" s="6"/>
+      <c r="FQ1" s="6"/>
+      <c r="FR1" s="6"/>
+      <c r="FS1" s="6"/>
+      <c r="FT1" s="6"/>
+      <c r="FU1" s="6"/>
+      <c r="FV1" s="6"/>
+      <c r="FW1" s="6"/>
+      <c r="FX1" s="6"/>
+      <c r="FY1" s="6"/>
+      <c r="FZ1" s="6"/>
+      <c r="GA1" s="6"/>
+      <c r="GB1" s="6"/>
+      <c r="GC1" s="6"/>
+      <c r="GD1" s="6"/>
+      <c r="GE1" s="6"/>
+      <c r="GF1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="GG1" s="2"/>
-      <c r="GH1" s="2"/>
-      <c r="GI1" s="2"/>
-      <c r="GJ1" s="2"/>
-      <c r="GK1" s="2"/>
-      <c r="GL1" s="2"/>
-      <c r="GM1" s="2"/>
-      <c r="GN1" s="2"/>
-      <c r="GO1" s="2"/>
-      <c r="GP1" s="2"/>
-      <c r="GQ1" s="2"/>
-      <c r="GR1" s="2"/>
-      <c r="GS1" s="2"/>
-      <c r="GT1" s="2"/>
-      <c r="GU1" s="2"/>
-      <c r="GV1" s="2"/>
-      <c r="GW1" s="2"/>
-      <c r="GX1" s="2"/>
-      <c r="GY1" s="2"/>
-      <c r="GZ1" s="2"/>
-      <c r="HA1" s="2"/>
-      <c r="HB1" s="2"/>
-      <c r="HC1" s="2"/>
-      <c r="HD1" s="2"/>
-      <c r="HE1" s="2"/>
-      <c r="HF1" s="2"/>
-      <c r="HG1" s="2"/>
-      <c r="HH1" s="2"/>
-      <c r="HI1" s="2"/>
-      <c r="HJ1" s="2" t="s">
+      <c r="GG1" s="6"/>
+      <c r="GH1" s="6"/>
+      <c r="GI1" s="6"/>
+      <c r="GJ1" s="6"/>
+      <c r="GK1" s="6"/>
+      <c r="GL1" s="6"/>
+      <c r="GM1" s="6"/>
+      <c r="GN1" s="6"/>
+      <c r="GO1" s="6"/>
+      <c r="GP1" s="6"/>
+      <c r="GQ1" s="6"/>
+      <c r="GR1" s="6"/>
+      <c r="GS1" s="6"/>
+      <c r="GT1" s="6"/>
+      <c r="GU1" s="6"/>
+      <c r="GV1" s="6"/>
+      <c r="GW1" s="6"/>
+      <c r="GX1" s="6"/>
+      <c r="GY1" s="6"/>
+      <c r="GZ1" s="6"/>
+      <c r="HA1" s="6"/>
+      <c r="HB1" s="6"/>
+      <c r="HC1" s="6"/>
+      <c r="HD1" s="6"/>
+      <c r="HE1" s="6"/>
+      <c r="HF1" s="6"/>
+      <c r="HG1" s="6"/>
+      <c r="HH1" s="6"/>
+      <c r="HI1" s="6"/>
+      <c r="HJ1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="HK1" s="2"/>
-      <c r="HL1" s="2"/>
-      <c r="HM1" s="2"/>
-      <c r="HN1" s="2"/>
-      <c r="HO1" s="2"/>
-      <c r="HP1" s="2"/>
-      <c r="HQ1" s="2"/>
-      <c r="HR1" s="2"/>
-      <c r="HS1" s="2"/>
-      <c r="HT1" s="2"/>
-      <c r="HU1" s="2"/>
-      <c r="HV1" s="2"/>
-      <c r="HW1" s="2"/>
-      <c r="HX1" s="2"/>
-      <c r="HY1" s="2"/>
-      <c r="HZ1" s="2"/>
-      <c r="IA1" s="2"/>
-      <c r="IB1" s="2"/>
-      <c r="IC1" s="2"/>
-      <c r="ID1" s="2"/>
-      <c r="IE1" s="2"/>
-      <c r="IF1" s="2"/>
-      <c r="IG1" s="2"/>
-      <c r="IH1" s="2"/>
-      <c r="II1" s="2"/>
-      <c r="IJ1" s="2"/>
-      <c r="IK1" s="2"/>
-      <c r="IL1" s="2"/>
-      <c r="IM1" s="2"/>
-      <c r="IN1" s="2"/>
+      <c r="HK1" s="6"/>
+      <c r="HL1" s="6"/>
+      <c r="HM1" s="6"/>
+      <c r="HN1" s="6"/>
+      <c r="HO1" s="6"/>
+      <c r="HP1" s="6"/>
+      <c r="HQ1" s="6"/>
+      <c r="HR1" s="6"/>
+      <c r="HS1" s="6"/>
+      <c r="HT1" s="6"/>
+      <c r="HU1" s="6"/>
+      <c r="HV1" s="6"/>
+      <c r="HW1" s="6"/>
+      <c r="HX1" s="6"/>
+      <c r="HY1" s="6"/>
+      <c r="HZ1" s="6"/>
+      <c r="IA1" s="6"/>
+      <c r="IB1" s="6"/>
+      <c r="IC1" s="6"/>
+      <c r="ID1" s="6"/>
+      <c r="IE1" s="6"/>
+      <c r="IF1" s="6"/>
+      <c r="IG1" s="6"/>
+      <c r="IH1" s="6"/>
+      <c r="II1" s="6"/>
+      <c r="IJ1" s="6"/>
+      <c r="IK1" s="6"/>
+      <c r="IL1" s="6"/>
+      <c r="IM1" s="6"/>
+      <c r="IN1" s="6"/>
     </row>
     <row r="2" spans="1:248" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
@@ -798,82 +806,82 @@
       <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="3">
         <v>1</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="3">
         <v>2</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="3">
         <v>3</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="3">
         <v>4</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="3">
         <v>5</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="3">
         <v>6</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J2" s="3">
         <v>7</v>
       </c>
-      <c r="K2" s="4">
+      <c r="K2" s="3">
         <v>8</v>
       </c>
-      <c r="L2" s="4">
+      <c r="L2" s="3">
         <v>9</v>
       </c>
-      <c r="M2" s="4">
+      <c r="M2" s="3">
         <v>10</v>
       </c>
-      <c r="N2" s="4">
+      <c r="N2" s="3">
         <v>11</v>
       </c>
-      <c r="O2" s="4">
+      <c r="O2" s="3">
         <v>12</v>
       </c>
-      <c r="P2" s="4">
+      <c r="P2" s="3">
         <v>13</v>
       </c>
-      <c r="Q2" s="4">
+      <c r="Q2" s="3">
         <v>14</v>
       </c>
-      <c r="R2" s="4">
+      <c r="R2" s="3">
         <v>15</v>
       </c>
-      <c r="S2" s="4">
+      <c r="S2" s="3">
         <v>16</v>
       </c>
-      <c r="T2" s="4">
+      <c r="T2" s="3">
         <v>17</v>
       </c>
-      <c r="U2" s="4">
+      <c r="U2" s="3">
         <v>18</v>
       </c>
-      <c r="V2" s="4">
+      <c r="V2" s="3">
         <v>19</v>
       </c>
-      <c r="W2" s="4">
+      <c r="W2" s="3">
         <v>20</v>
       </c>
-      <c r="X2" s="4">
+      <c r="X2" s="3">
         <v>21</v>
       </c>
-      <c r="Y2" s="4">
+      <c r="Y2" s="3">
         <v>22</v>
       </c>
-      <c r="Z2" s="4">
+      <c r="Z2" s="3">
         <v>23</v>
       </c>
-      <c r="AA2" s="4">
+      <c r="AA2" s="3">
         <v>24</v>
       </c>
-      <c r="AB2" s="4">
+      <c r="AB2" s="3">
         <v>25</v>
       </c>
-      <c r="AC2" s="4">
+      <c r="AC2" s="3">
         <v>26</v>
       </c>
       <c r="AD2" s="1">
@@ -1542,32 +1550,32 @@
         <v>15</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
-      <c r="W3" s="4"/>
-      <c r="X3" s="4"/>
-      <c r="Y3" s="4"/>
-      <c r="Z3" s="4"/>
-      <c r="AA3" s="4"/>
-      <c r="AB3" s="4"/>
-      <c r="AC3" s="4"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="3"/>
+      <c r="AB3" s="3"/>
+      <c r="AC3" s="3"/>
       <c r="AD3" s="1"/>
       <c r="AE3" s="1"/>
       <c r="AF3" s="1"/>
@@ -1792,32 +1800,32 @@
       <c r="A4" s="5"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
-      <c r="W4" s="4"/>
-      <c r="X4" s="4"/>
-      <c r="Y4" s="4"/>
-      <c r="Z4" s="4"/>
-      <c r="AA4" s="4"/>
-      <c r="AB4" s="4"/>
-      <c r="AC4" s="4"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="3"/>
+      <c r="AB4" s="3"/>
+      <c r="AC4" s="3"/>
       <c r="AD4" s="1"/>
       <c r="AE4" s="1"/>
       <c r="AF4" s="1"/>
@@ -2042,32 +2050,32 @@
       <c r="A5" s="5"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4"/>
-      <c r="V5" s="4"/>
-      <c r="W5" s="4"/>
-      <c r="X5" s="4"/>
-      <c r="Y5" s="4"/>
-      <c r="Z5" s="4"/>
-      <c r="AA5" s="4"/>
-      <c r="AB5" s="4"/>
-      <c r="AC5" s="4"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3"/>
+      <c r="AA5" s="3"/>
+      <c r="AB5" s="3"/>
+      <c r="AC5" s="3"/>
       <c r="AD5" s="1"/>
       <c r="AE5" s="1"/>
       <c r="AF5" s="1"/>
@@ -2292,32 +2300,32 @@
       <c r="A6" s="5"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4"/>
-      <c r="V6" s="4"/>
-      <c r="W6" s="4"/>
-      <c r="X6" s="4"/>
-      <c r="Y6" s="4"/>
-      <c r="Z6" s="4"/>
-      <c r="AA6" s="4"/>
-      <c r="AB6" s="4"/>
-      <c r="AC6" s="4"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="3"/>
+      <c r="AB6" s="3"/>
+      <c r="AC6" s="3"/>
       <c r="AD6" s="1"/>
       <c r="AE6" s="1"/>
       <c r="AF6" s="1"/>
@@ -2542,32 +2550,32 @@
       <c r="A7" s="5"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4"/>
-      <c r="V7" s="4"/>
-      <c r="W7" s="4"/>
-      <c r="X7" s="4"/>
-      <c r="Y7" s="4"/>
-      <c r="Z7" s="4"/>
-      <c r="AA7" s="4"/>
-      <c r="AB7" s="4"/>
-      <c r="AC7" s="4"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="3"/>
+      <c r="AB7" s="3"/>
+      <c r="AC7" s="3"/>
       <c r="AD7" s="1"/>
       <c r="AE7" s="1"/>
       <c r="AF7" s="1"/>
@@ -2792,32 +2800,32 @@
       <c r="A8" s="5"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
-      <c r="V8" s="4"/>
-      <c r="W8" s="4"/>
-      <c r="X8" s="4"/>
-      <c r="Y8" s="4"/>
-      <c r="Z8" s="4"/>
-      <c r="AA8" s="4"/>
-      <c r="AB8" s="4"/>
-      <c r="AC8" s="4"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3"/>
+      <c r="AB8" s="3"/>
+      <c r="AC8" s="3"/>
       <c r="AD8" s="1"/>
       <c r="AE8" s="1"/>
       <c r="AF8" s="1"/>
@@ -3042,32 +3050,32 @@
       <c r="A9" s="5"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="4"/>
-      <c r="U9" s="4"/>
-      <c r="V9" s="4"/>
-      <c r="W9" s="4"/>
-      <c r="X9" s="4"/>
-      <c r="Y9" s="4"/>
-      <c r="Z9" s="4"/>
-      <c r="AA9" s="4"/>
-      <c r="AB9" s="4"/>
-      <c r="AC9" s="4"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="3"/>
+      <c r="AA9" s="3"/>
+      <c r="AB9" s="3"/>
+      <c r="AC9" s="3"/>
       <c r="AD9" s="1"/>
       <c r="AE9" s="1"/>
       <c r="AF9" s="1"/>
@@ -3292,32 +3300,32 @@
       <c r="A10" s="5"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="4"/>
-      <c r="U10" s="4"/>
-      <c r="V10" s="4"/>
-      <c r="W10" s="4"/>
-      <c r="X10" s="4"/>
-      <c r="Y10" s="4"/>
-      <c r="Z10" s="4"/>
-      <c r="AA10" s="4"/>
-      <c r="AB10" s="4"/>
-      <c r="AC10" s="4"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="3"/>
+      <c r="AA10" s="3"/>
+      <c r="AB10" s="3"/>
+      <c r="AC10" s="3"/>
       <c r="AD10" s="1"/>
       <c r="AE10" s="1"/>
       <c r="AF10" s="1"/>
@@ -3542,32 +3550,32 @@
       <c r="A11" s="5"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
-      <c r="U11" s="4"/>
-      <c r="V11" s="4"/>
-      <c r="W11" s="4"/>
-      <c r="X11" s="4"/>
-      <c r="Y11" s="4"/>
-      <c r="Z11" s="4"/>
-      <c r="AA11" s="4"/>
-      <c r="AB11" s="4"/>
-      <c r="AC11" s="4"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
       <c r="AD11" s="1"/>
       <c r="AE11" s="1"/>
       <c r="AF11" s="1"/>
@@ -3792,32 +3800,32 @@
       <c r="A12" s="5"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="4"/>
-      <c r="U12" s="4"/>
-      <c r="V12" s="4"/>
-      <c r="W12" s="4"/>
-      <c r="X12" s="4"/>
-      <c r="Y12" s="4"/>
-      <c r="Z12" s="4"/>
-      <c r="AA12" s="4"/>
-      <c r="AB12" s="4"/>
-      <c r="AC12" s="4"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="3"/>
+      <c r="AA12" s="3"/>
+      <c r="AB12" s="3"/>
+      <c r="AC12" s="3"/>
       <c r="AD12" s="1"/>
       <c r="AE12" s="1"/>
       <c r="AF12" s="1"/>
@@ -4042,32 +4050,32 @@
       <c r="A13" s="5"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="4"/>
-      <c r="U13" s="4"/>
-      <c r="V13" s="4"/>
-      <c r="W13" s="4"/>
-      <c r="X13" s="4"/>
-      <c r="Y13" s="4"/>
-      <c r="Z13" s="4"/>
-      <c r="AA13" s="4"/>
-      <c r="AB13" s="4"/>
-      <c r="AC13" s="4"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="3"/>
+      <c r="AA13" s="3"/>
+      <c r="AB13" s="3"/>
+      <c r="AC13" s="3"/>
       <c r="AD13" s="1"/>
       <c r="AE13" s="1"/>
       <c r="AF13" s="1"/>
@@ -4296,32 +4304,32 @@
         <v>14</v>
       </c>
       <c r="C14" s="1"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
-      <c r="U14" s="4"/>
-      <c r="V14" s="4"/>
-      <c r="W14" s="4"/>
-      <c r="X14" s="4"/>
-      <c r="Y14" s="4"/>
-      <c r="Z14" s="4"/>
-      <c r="AA14" s="4"/>
-      <c r="AB14" s="4"/>
-      <c r="AC14" s="4"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3"/>
+      <c r="AA14" s="3"/>
+      <c r="AB14" s="3"/>
+      <c r="AC14" s="3"/>
       <c r="AD14" s="1"/>
       <c r="AE14" s="1"/>
       <c r="AF14" s="1"/>
@@ -4548,32 +4556,32 @@
         <v>16</v>
       </c>
       <c r="C15" s="1"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
-      <c r="U15" s="4"/>
-      <c r="V15" s="4"/>
-      <c r="W15" s="4"/>
-      <c r="X15" s="4"/>
-      <c r="Y15" s="4"/>
-      <c r="Z15" s="4"/>
-      <c r="AA15" s="4"/>
-      <c r="AB15" s="4"/>
-      <c r="AC15" s="4"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="3"/>
+      <c r="AA15" s="3"/>
+      <c r="AB15" s="3"/>
+      <c r="AC15" s="3"/>
       <c r="AD15" s="1"/>
       <c r="AE15" s="1"/>
       <c r="AF15" s="1"/>
@@ -4798,32 +4806,32 @@
       <c r="A16" s="5"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
-      <c r="S16" s="4"/>
-      <c r="T16" s="4"/>
-      <c r="U16" s="4"/>
-      <c r="V16" s="4"/>
-      <c r="W16" s="4"/>
-      <c r="X16" s="4"/>
-      <c r="Y16" s="4"/>
-      <c r="Z16" s="4"/>
-      <c r="AA16" s="4"/>
-      <c r="AB16" s="4"/>
-      <c r="AC16" s="4"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
       <c r="AD16" s="1"/>
       <c r="AE16" s="1"/>
       <c r="AF16" s="1"/>
@@ -5048,32 +5056,32 @@
       <c r="A17" s="5"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="4"/>
-      <c r="U17" s="4"/>
-      <c r="V17" s="4"/>
-      <c r="W17" s="4"/>
-      <c r="X17" s="4"/>
-      <c r="Y17" s="4"/>
-      <c r="Z17" s="4"/>
-      <c r="AA17" s="4"/>
-      <c r="AB17" s="4"/>
-      <c r="AC17" s="4"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="3"/>
+      <c r="AA17" s="3"/>
+      <c r="AB17" s="3"/>
+      <c r="AC17" s="3"/>
       <c r="AD17" s="1"/>
       <c r="AE17" s="1"/>
       <c r="AF17" s="1"/>
@@ -5298,32 +5306,32 @@
       <c r="A18" s="5"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
-      <c r="S18" s="4"/>
-      <c r="T18" s="4"/>
-      <c r="U18" s="4"/>
-      <c r="V18" s="4"/>
-      <c r="W18" s="4"/>
-      <c r="X18" s="4"/>
-      <c r="Y18" s="4"/>
-      <c r="Z18" s="4"/>
-      <c r="AA18" s="4"/>
-      <c r="AB18" s="4"/>
-      <c r="AC18" s="4"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3"/>
+      <c r="Z18" s="3"/>
+      <c r="AA18" s="3"/>
+      <c r="AB18" s="3"/>
+      <c r="AC18" s="3"/>
       <c r="AD18" s="1"/>
       <c r="AE18" s="1"/>
       <c r="AF18" s="1"/>
@@ -5548,32 +5556,32 @@
       <c r="A19" s="5"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="4"/>
-      <c r="S19" s="4"/>
-      <c r="T19" s="4"/>
-      <c r="U19" s="4"/>
-      <c r="V19" s="4"/>
-      <c r="W19" s="4"/>
-      <c r="X19" s="4"/>
-      <c r="Y19" s="4"/>
-      <c r="Z19" s="4"/>
-      <c r="AA19" s="4"/>
-      <c r="AB19" s="4"/>
-      <c r="AC19" s="4"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
       <c r="AD19" s="1"/>
       <c r="AE19" s="1"/>
       <c r="AF19" s="1"/>
@@ -5798,32 +5806,32 @@
       <c r="A20" s="5"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="4"/>
-      <c r="S20" s="4"/>
-      <c r="T20" s="4"/>
-      <c r="U20" s="4"/>
-      <c r="V20" s="4"/>
-      <c r="W20" s="4"/>
-      <c r="X20" s="4"/>
-      <c r="Y20" s="4"/>
-      <c r="Z20" s="4"/>
-      <c r="AA20" s="4"/>
-      <c r="AB20" s="4"/>
-      <c r="AC20" s="4"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="3"/>
+      <c r="Y20" s="3"/>
+      <c r="Z20" s="3"/>
+      <c r="AA20" s="3"/>
+      <c r="AB20" s="3"/>
+      <c r="AC20" s="3"/>
       <c r="AD20" s="1"/>
       <c r="AE20" s="1"/>
       <c r="AF20" s="1"/>
@@ -6048,32 +6056,32 @@
       <c r="A21" s="5"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="4"/>
-      <c r="S21" s="4"/>
-      <c r="T21" s="4"/>
-      <c r="U21" s="4"/>
-      <c r="V21" s="4"/>
-      <c r="W21" s="4"/>
-      <c r="X21" s="4"/>
-      <c r="Y21" s="4"/>
-      <c r="Z21" s="4"/>
-      <c r="AA21" s="4"/>
-      <c r="AB21" s="4"/>
-      <c r="AC21" s="4"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="3"/>
+      <c r="W21" s="3"/>
+      <c r="X21" s="3"/>
+      <c r="Y21" s="3"/>
+      <c r="Z21" s="3"/>
+      <c r="AA21" s="3"/>
+      <c r="AB21" s="3"/>
+      <c r="AC21" s="3"/>
       <c r="AD21" s="1"/>
       <c r="AE21" s="1"/>
       <c r="AF21" s="1"/>
@@ -6298,32 +6306,32 @@
       <c r="A22" s="5"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="4"/>
-      <c r="S22" s="4"/>
-      <c r="T22" s="4"/>
-      <c r="U22" s="4"/>
-      <c r="V22" s="4"/>
-      <c r="W22" s="4"/>
-      <c r="X22" s="4"/>
-      <c r="Y22" s="4"/>
-      <c r="Z22" s="4"/>
-      <c r="AA22" s="4"/>
-      <c r="AB22" s="4"/>
-      <c r="AC22" s="4"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="3"/>
+      <c r="X22" s="3"/>
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="3"/>
+      <c r="AA22" s="3"/>
+      <c r="AB22" s="3"/>
+      <c r="AC22" s="3"/>
       <c r="AD22" s="1"/>
       <c r="AE22" s="1"/>
       <c r="AF22" s="1"/>
@@ -6548,32 +6556,32 @@
       <c r="A23" s="5"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="4"/>
-      <c r="S23" s="4"/>
-      <c r="T23" s="4"/>
-      <c r="U23" s="4"/>
-      <c r="V23" s="4"/>
-      <c r="W23" s="4"/>
-      <c r="X23" s="4"/>
-      <c r="Y23" s="4"/>
-      <c r="Z23" s="4"/>
-      <c r="AA23" s="4"/>
-      <c r="AB23" s="4"/>
-      <c r="AC23" s="4"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="3"/>
+      <c r="W23" s="3"/>
+      <c r="X23" s="3"/>
+      <c r="Y23" s="3"/>
+      <c r="Z23" s="3"/>
+      <c r="AA23" s="3"/>
+      <c r="AB23" s="3"/>
+      <c r="AC23" s="3"/>
       <c r="AD23" s="1"/>
       <c r="AE23" s="1"/>
       <c r="AF23" s="1"/>
@@ -6798,32 +6806,32 @@
       <c r="A24" s="5"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="4"/>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="4"/>
-      <c r="S24" s="4"/>
-      <c r="T24" s="4"/>
-      <c r="U24" s="4"/>
-      <c r="V24" s="4"/>
-      <c r="W24" s="4"/>
-      <c r="X24" s="4"/>
-      <c r="Y24" s="4"/>
-      <c r="Z24" s="4"/>
-      <c r="AA24" s="4"/>
-      <c r="AB24" s="4"/>
-      <c r="AC24" s="4"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="3"/>
+      <c r="W24" s="3"/>
+      <c r="X24" s="3"/>
+      <c r="Y24" s="3"/>
+      <c r="Z24" s="3"/>
+      <c r="AA24" s="3"/>
+      <c r="AB24" s="3"/>
+      <c r="AC24" s="3"/>
       <c r="AD24" s="1"/>
       <c r="AE24" s="1"/>
       <c r="AF24" s="1"/>
@@ -7052,32 +7060,32 @@
         <v>17</v>
       </c>
       <c r="C25" s="1"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
-      <c r="O25" s="4"/>
-      <c r="P25" s="4"/>
-      <c r="Q25" s="4"/>
-      <c r="R25" s="4"/>
-      <c r="S25" s="4"/>
-      <c r="T25" s="4"/>
-      <c r="U25" s="4"/>
-      <c r="V25" s="4"/>
-      <c r="W25" s="4"/>
-      <c r="X25" s="4"/>
-      <c r="Y25" s="4"/>
-      <c r="Z25" s="4"/>
-      <c r="AA25" s="4"/>
-      <c r="AB25" s="4"/>
-      <c r="AC25" s="4"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
+      <c r="U25" s="3"/>
+      <c r="V25" s="3"/>
+      <c r="W25" s="3"/>
+      <c r="X25" s="3"/>
+      <c r="Y25" s="3"/>
+      <c r="Z25" s="3"/>
+      <c r="AA25" s="3"/>
+      <c r="AB25" s="3"/>
+      <c r="AC25" s="3"/>
       <c r="AD25" s="1"/>
       <c r="AE25" s="1"/>
       <c r="AF25" s="1"/>
@@ -7304,32 +7312,32 @@
         <v>18</v>
       </c>
       <c r="C26" s="1"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="4"/>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="4"/>
-      <c r="S26" s="4"/>
-      <c r="T26" s="4"/>
-      <c r="U26" s="4"/>
-      <c r="V26" s="4"/>
-      <c r="W26" s="4"/>
-      <c r="X26" s="4"/>
-      <c r="Y26" s="4"/>
-      <c r="Z26" s="4"/>
-      <c r="AA26" s="4"/>
-      <c r="AB26" s="4"/>
-      <c r="AC26" s="4"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="3"/>
+      <c r="W26" s="3"/>
+      <c r="X26" s="3"/>
+      <c r="Y26" s="3"/>
+      <c r="Z26" s="3"/>
+      <c r="AA26" s="3"/>
+      <c r="AB26" s="3"/>
+      <c r="AC26" s="3"/>
       <c r="AD26" s="1"/>
       <c r="AE26" s="1"/>
       <c r="AF26" s="1"/>
@@ -7556,32 +7564,32 @@
         <v>19</v>
       </c>
       <c r="C27" s="1"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4"/>
-      <c r="O27" s="4"/>
-      <c r="P27" s="4"/>
-      <c r="Q27" s="4"/>
-      <c r="R27" s="4"/>
-      <c r="S27" s="4"/>
-      <c r="T27" s="4"/>
-      <c r="U27" s="4"/>
-      <c r="V27" s="4"/>
-      <c r="W27" s="4"/>
-      <c r="X27" s="4"/>
-      <c r="Y27" s="4"/>
-      <c r="Z27" s="4"/>
-      <c r="AA27" s="4"/>
-      <c r="AB27" s="4"/>
-      <c r="AC27" s="4"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="3"/>
+      <c r="W27" s="3"/>
+      <c r="X27" s="3"/>
+      <c r="Y27" s="3"/>
+      <c r="Z27" s="3"/>
+      <c r="AA27" s="3"/>
+      <c r="AB27" s="3"/>
+      <c r="AC27" s="3"/>
       <c r="AD27" s="1"/>
       <c r="AE27" s="1"/>
       <c r="AF27" s="1"/>
@@ -7808,32 +7816,32 @@
         <v>20</v>
       </c>
       <c r="C28" s="1"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
-      <c r="O28" s="4"/>
-      <c r="P28" s="4"/>
-      <c r="Q28" s="4"/>
-      <c r="R28" s="4"/>
-      <c r="S28" s="4"/>
-      <c r="T28" s="4"/>
-      <c r="U28" s="4"/>
-      <c r="V28" s="4"/>
-      <c r="W28" s="4"/>
-      <c r="X28" s="4"/>
-      <c r="Y28" s="4"/>
-      <c r="Z28" s="4"/>
-      <c r="AA28" s="4"/>
-      <c r="AB28" s="4"/>
-      <c r="AC28" s="4"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
+      <c r="V28" s="3"/>
+      <c r="W28" s="3"/>
+      <c r="X28" s="3"/>
+      <c r="Y28" s="3"/>
+      <c r="Z28" s="3"/>
+      <c r="AA28" s="3"/>
+      <c r="AB28" s="3"/>
+      <c r="AC28" s="3"/>
       <c r="AD28" s="1"/>
       <c r="AE28" s="1"/>
       <c r="AF28" s="1"/>
@@ -8060,32 +8068,32 @@
         <v>22</v>
       </c>
       <c r="C29" s="1"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="4"/>
-      <c r="O29" s="4"/>
-      <c r="P29" s="4"/>
-      <c r="Q29" s="4"/>
-      <c r="R29" s="4"/>
-      <c r="S29" s="4"/>
-      <c r="T29" s="4"/>
-      <c r="U29" s="4"/>
-      <c r="V29" s="4"/>
-      <c r="W29" s="4"/>
-      <c r="X29" s="4"/>
-      <c r="Y29" s="4"/>
-      <c r="Z29" s="4"/>
-      <c r="AA29" s="4"/>
-      <c r="AB29" s="4"/>
-      <c r="AC29" s="4"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="3"/>
+      <c r="U29" s="3"/>
+      <c r="V29" s="3"/>
+      <c r="W29" s="3"/>
+      <c r="X29" s="3"/>
+      <c r="Y29" s="3"/>
+      <c r="Z29" s="3"/>
+      <c r="AA29" s="3"/>
+      <c r="AB29" s="3"/>
+      <c r="AC29" s="3"/>
       <c r="AD29" s="1"/>
       <c r="AE29" s="1"/>
       <c r="AF29" s="1"/>
@@ -8310,32 +8318,32 @@
       <c r="A30" s="5"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="4"/>
-      <c r="N30" s="4"/>
-      <c r="O30" s="4"/>
-      <c r="P30" s="4"/>
-      <c r="Q30" s="4"/>
-      <c r="R30" s="4"/>
-      <c r="S30" s="4"/>
-      <c r="T30" s="4"/>
-      <c r="U30" s="4"/>
-      <c r="V30" s="4"/>
-      <c r="W30" s="4"/>
-      <c r="X30" s="4"/>
-      <c r="Y30" s="4"/>
-      <c r="Z30" s="4"/>
-      <c r="AA30" s="4"/>
-      <c r="AB30" s="4"/>
-      <c r="AC30" s="4"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="3"/>
+      <c r="U30" s="3"/>
+      <c r="V30" s="3"/>
+      <c r="W30" s="3"/>
+      <c r="X30" s="3"/>
+      <c r="Y30" s="3"/>
+      <c r="Z30" s="3"/>
+      <c r="AA30" s="3"/>
+      <c r="AB30" s="3"/>
+      <c r="AC30" s="3"/>
       <c r="AD30" s="1"/>
       <c r="AE30" s="1"/>
       <c r="AF30" s="1"/>
@@ -8560,32 +8568,32 @@
       <c r="A31" s="5"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="4"/>
-      <c r="N31" s="4"/>
-      <c r="O31" s="4"/>
-      <c r="P31" s="4"/>
-      <c r="Q31" s="4"/>
-      <c r="R31" s="4"/>
-      <c r="S31" s="4"/>
-      <c r="T31" s="4"/>
-      <c r="U31" s="4"/>
-      <c r="V31" s="4"/>
-      <c r="W31" s="4"/>
-      <c r="X31" s="4"/>
-      <c r="Y31" s="4"/>
-      <c r="Z31" s="4"/>
-      <c r="AA31" s="4"/>
-      <c r="AB31" s="4"/>
-      <c r="AC31" s="4"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="3"/>
+      <c r="U31" s="3"/>
+      <c r="V31" s="3"/>
+      <c r="W31" s="3"/>
+      <c r="X31" s="3"/>
+      <c r="Y31" s="3"/>
+      <c r="Z31" s="3"/>
+      <c r="AA31" s="3"/>
+      <c r="AB31" s="3"/>
+      <c r="AC31" s="3"/>
       <c r="AD31" s="1"/>
       <c r="AE31" s="1"/>
       <c r="AF31" s="1"/>
@@ -8810,32 +8818,32 @@
       <c r="A32" s="5"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
-      <c r="M32" s="4"/>
-      <c r="N32" s="4"/>
-      <c r="O32" s="4"/>
-      <c r="P32" s="4"/>
-      <c r="Q32" s="4"/>
-      <c r="R32" s="4"/>
-      <c r="S32" s="4"/>
-      <c r="T32" s="4"/>
-      <c r="U32" s="4"/>
-      <c r="V32" s="4"/>
-      <c r="W32" s="4"/>
-      <c r="X32" s="4"/>
-      <c r="Y32" s="4"/>
-      <c r="Z32" s="4"/>
-      <c r="AA32" s="4"/>
-      <c r="AB32" s="4"/>
-      <c r="AC32" s="4"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="3"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="3"/>
+      <c r="U32" s="3"/>
+      <c r="V32" s="3"/>
+      <c r="W32" s="3"/>
+      <c r="X32" s="3"/>
+      <c r="Y32" s="3"/>
+      <c r="Z32" s="3"/>
+      <c r="AA32" s="3"/>
+      <c r="AB32" s="3"/>
+      <c r="AC32" s="3"/>
       <c r="AD32" s="1"/>
       <c r="AE32" s="1"/>
       <c r="AF32" s="1"/>
@@ -9060,32 +9068,32 @@
       <c r="A33" s="5"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
-      <c r="M33" s="4"/>
-      <c r="N33" s="4"/>
-      <c r="O33" s="4"/>
-      <c r="P33" s="4"/>
-      <c r="Q33" s="4"/>
-      <c r="R33" s="4"/>
-      <c r="S33" s="4"/>
-      <c r="T33" s="4"/>
-      <c r="U33" s="4"/>
-      <c r="V33" s="4"/>
-      <c r="W33" s="4"/>
-      <c r="X33" s="4"/>
-      <c r="Y33" s="4"/>
-      <c r="Z33" s="4"/>
-      <c r="AA33" s="4"/>
-      <c r="AB33" s="4"/>
-      <c r="AC33" s="4"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="3"/>
+      <c r="U33" s="3"/>
+      <c r="V33" s="3"/>
+      <c r="W33" s="3"/>
+      <c r="X33" s="3"/>
+      <c r="Y33" s="3"/>
+      <c r="Z33" s="3"/>
+      <c r="AA33" s="3"/>
+      <c r="AB33" s="3"/>
+      <c r="AC33" s="3"/>
       <c r="AD33" s="1"/>
       <c r="AE33" s="1"/>
       <c r="AF33" s="1"/>
@@ -9310,32 +9318,32 @@
       <c r="A34" s="5"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
-      <c r="L34" s="4"/>
-      <c r="M34" s="4"/>
-      <c r="N34" s="4"/>
-      <c r="O34" s="4"/>
-      <c r="P34" s="4"/>
-      <c r="Q34" s="4"/>
-      <c r="R34" s="4"/>
-      <c r="S34" s="4"/>
-      <c r="T34" s="4"/>
-      <c r="U34" s="4"/>
-      <c r="V34" s="4"/>
-      <c r="W34" s="4"/>
-      <c r="X34" s="4"/>
-      <c r="Y34" s="4"/>
-      <c r="Z34" s="4"/>
-      <c r="AA34" s="4"/>
-      <c r="AB34" s="4"/>
-      <c r="AC34" s="4"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="3"/>
+      <c r="U34" s="3"/>
+      <c r="V34" s="3"/>
+      <c r="W34" s="3"/>
+      <c r="X34" s="3"/>
+      <c r="Y34" s="3"/>
+      <c r="Z34" s="3"/>
+      <c r="AA34" s="3"/>
+      <c r="AB34" s="3"/>
+      <c r="AC34" s="3"/>
       <c r="AD34" s="1"/>
       <c r="AE34" s="1"/>
       <c r="AF34" s="1"/>
@@ -9560,32 +9568,32 @@
       <c r="A35" s="5"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="4"/>
-      <c r="L35" s="4"/>
-      <c r="M35" s="4"/>
-      <c r="N35" s="4"/>
-      <c r="O35" s="4"/>
-      <c r="P35" s="4"/>
-      <c r="Q35" s="4"/>
-      <c r="R35" s="4"/>
-      <c r="S35" s="4"/>
-      <c r="T35" s="4"/>
-      <c r="U35" s="4"/>
-      <c r="V35" s="4"/>
-      <c r="W35" s="4"/>
-      <c r="X35" s="4"/>
-      <c r="Y35" s="4"/>
-      <c r="Z35" s="4"/>
-      <c r="AA35" s="4"/>
-      <c r="AB35" s="4"/>
-      <c r="AC35" s="4"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="3"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="3"/>
+      <c r="U35" s="3"/>
+      <c r="V35" s="3"/>
+      <c r="W35" s="3"/>
+      <c r="X35" s="3"/>
+      <c r="Y35" s="3"/>
+      <c r="Z35" s="3"/>
+      <c r="AA35" s="3"/>
+      <c r="AB35" s="3"/>
+      <c r="AC35" s="3"/>
       <c r="AD35" s="1"/>
       <c r="AE35" s="1"/>
       <c r="AF35" s="1"/>
@@ -9814,32 +9822,32 @@
         <v>21</v>
       </c>
       <c r="C36" s="1"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
-      <c r="K36" s="4"/>
-      <c r="L36" s="4"/>
-      <c r="M36" s="4"/>
-      <c r="N36" s="4"/>
-      <c r="O36" s="4"/>
-      <c r="P36" s="4"/>
-      <c r="Q36" s="4"/>
-      <c r="R36" s="4"/>
-      <c r="S36" s="4"/>
-      <c r="T36" s="4"/>
-      <c r="U36" s="4"/>
-      <c r="V36" s="4"/>
-      <c r="W36" s="4"/>
-      <c r="X36" s="4"/>
-      <c r="Y36" s="4"/>
-      <c r="Z36" s="4"/>
-      <c r="AA36" s="4"/>
-      <c r="AB36" s="4"/>
-      <c r="AC36" s="4"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="3"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="3"/>
+      <c r="U36" s="3"/>
+      <c r="V36" s="3"/>
+      <c r="W36" s="3"/>
+      <c r="X36" s="3"/>
+      <c r="Y36" s="3"/>
+      <c r="Z36" s="3"/>
+      <c r="AA36" s="3"/>
+      <c r="AB36" s="3"/>
+      <c r="AC36" s="3"/>
       <c r="AD36" s="1"/>
       <c r="AE36" s="1"/>
       <c r="AF36" s="1"/>
@@ -10081,13 +10089,18 @@
     <row r="43" spans="1:248" x14ac:dyDescent="0.15">
       <c r="A43" s="5"/>
     </row>
+    <row r="44" spans="1:248" x14ac:dyDescent="0.15">
+      <c r="B44" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="46" spans="1:248" x14ac:dyDescent="0.15">
+      <c r="B46" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A36:A43"/>
-    <mergeCell ref="D1:AH1"/>
-    <mergeCell ref="AI1:BL1"/>
-    <mergeCell ref="BM1:CQ1"/>
-    <mergeCell ref="CR1:DV1"/>
     <mergeCell ref="GF1:HI1"/>
     <mergeCell ref="HJ1:IN1"/>
     <mergeCell ref="A3:A13"/>
@@ -10095,6 +10108,11 @@
     <mergeCell ref="A25:A35"/>
     <mergeCell ref="DW1:EZ1"/>
     <mergeCell ref="FA1:GE1"/>
+    <mergeCell ref="A36:A43"/>
+    <mergeCell ref="D1:AH1"/>
+    <mergeCell ref="AI1:BL1"/>
+    <mergeCell ref="BM1:CQ1"/>
+    <mergeCell ref="CR1:DV1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
